--- a/KBF1JJ.xlsx
+++ b/KBF1JJ.xlsx
@@ -44,18 +44,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>mpg</t>
-  </si>
-  <si>
-    <t>mahadev</t>
-  </si>
-  <si>
-    <t>mahadevprasad</t>
-  </si>
-  <si>
-    <t>mahadevprasad g</t>
-  </si>
-  <si>
     <t>amount paid</t>
   </si>
   <si>
@@ -72,6 +60,18 @@
   </si>
   <si>
     <t>DOM</t>
+  </si>
+  <si>
+    <t>Zakeeramma</t>
+  </si>
+  <si>
+    <t>Soma Mahadevamma</t>
+  </si>
+  <si>
+    <t>lakshmi</t>
+  </si>
+  <si>
+    <t>radha</t>
   </si>
 </sst>
 </file>
@@ -392,13 +392,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,13 +410,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -424,16 +424,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -441,16 +441,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -458,16 +458,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -475,16 +475,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/KBF1JJ.xlsx
+++ b/KBF1JJ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>card code</t>
   </si>
@@ -38,9 +38,6 @@
     <t>26KBF1KVM003</t>
   </si>
   <si>
-    <t>26KBF1KVM004</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -71,7 +68,106 @@
     <t>lakshmi</t>
   </si>
   <si>
-    <t>radha</t>
+    <t>26KBF1KVM005</t>
+  </si>
+  <si>
+    <t>26KBF1KVM006</t>
+  </si>
+  <si>
+    <t>26KBF1KVM007</t>
+  </si>
+  <si>
+    <t>26KBF1KVM008</t>
+  </si>
+  <si>
+    <t>26KBF1KVM009</t>
+  </si>
+  <si>
+    <t>26KBF1KVM010</t>
+  </si>
+  <si>
+    <t>26KBF1KVM011</t>
+  </si>
+  <si>
+    <t>26KBF1KVM012</t>
+  </si>
+  <si>
+    <t>26KBF1KVM013</t>
+  </si>
+  <si>
+    <t>26KBF1KVM014</t>
+  </si>
+  <si>
+    <t>26KBF1KVM015</t>
+  </si>
+  <si>
+    <t>26KBF1KVM016</t>
+  </si>
+  <si>
+    <t>26KBF1KVM017</t>
+  </si>
+  <si>
+    <t>26KBF1KVM018</t>
+  </si>
+  <si>
+    <t>Maalamma</t>
+  </si>
+  <si>
+    <t>Lakshmi Mahadevamma 1</t>
+  </si>
+  <si>
+    <t>Manjanna 1</t>
+  </si>
+  <si>
+    <t>Manjanna 2</t>
+  </si>
+  <si>
+    <t>Manjanna 3</t>
+  </si>
+  <si>
+    <t>Shivanna</t>
+  </si>
+  <si>
+    <t>Srinivas leelamma 1</t>
+  </si>
+  <si>
+    <t>Srinivas leelamma 2</t>
+  </si>
+  <si>
+    <t>Srinivas leelamma 3</t>
+  </si>
+  <si>
+    <t>Srinivas leelamma 4</t>
+  </si>
+  <si>
+    <t>Suma Mahadevamma 1</t>
+  </si>
+  <si>
+    <t>Suma Mahadevamma 2</t>
+  </si>
+  <si>
+    <t>Srinivas leelamma 5</t>
+  </si>
+  <si>
+    <t>Suma Muddanayaka</t>
+  </si>
+  <si>
+    <t>26KBF1KVM019</t>
+  </si>
+  <si>
+    <t>26KBF1KVM020</t>
+  </si>
+  <si>
+    <t>26KBF1KVM021</t>
+  </si>
+  <si>
+    <t>26KBF1KVM022</t>
+  </si>
+  <si>
+    <t>Muddanayaka Mahadevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhagya </t>
   </si>
 </sst>
 </file>
@@ -389,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -407,16 +503,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -424,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -441,16 +537,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -458,33 +554,157 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/KBF1JJ.xlsx
+++ b/KBF1JJ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>card code</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bhagya </t>
+  </si>
+  <si>
+    <t>mpg</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,145 +569,310 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>2000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
         <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>4000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/KBF1JJ.xlsx
+++ b/KBF1JJ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="299">
   <si>
     <t>card code</t>
   </si>
@@ -53,12 +53,6 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>KVM</t>
-  </si>
-  <si>
-    <t>DOM</t>
-  </si>
-  <si>
     <t>Zakeeramma</t>
   </si>
   <si>
@@ -158,19 +152,775 @@
     <t>26KBF1KVM020</t>
   </si>
   <si>
-    <t>26KBF1KVM021</t>
-  </si>
-  <si>
     <t>26KBF1KVM022</t>
   </si>
   <si>
     <t>Muddanayaka Mahadevi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bhagya </t>
-  </si>
-  <si>
-    <t>mpg</t>
+    <t>26KBF1KVM023</t>
+  </si>
+  <si>
+    <t>26KBF1KVM027</t>
+  </si>
+  <si>
+    <t>26KBF1KVM028</t>
+  </si>
+  <si>
+    <t>26KBF1KVM029</t>
+  </si>
+  <si>
+    <t>26KBF1KVM030</t>
+  </si>
+  <si>
+    <t>26KBF1KVM031</t>
+  </si>
+  <si>
+    <t>26KBF1KVM033</t>
+  </si>
+  <si>
+    <t>26KBF1KVM034</t>
+  </si>
+  <si>
+    <t>26KBF1KVM035</t>
+  </si>
+  <si>
+    <t>26KBF1KVM036</t>
+  </si>
+  <si>
+    <t>26KBF1KVM037</t>
+  </si>
+  <si>
+    <t>26KBF1KVM038</t>
+  </si>
+  <si>
+    <t>26KBF1KVM039</t>
+  </si>
+  <si>
+    <t>26KBF1KVM040</t>
+  </si>
+  <si>
+    <t>26KBF1KVM042</t>
+  </si>
+  <si>
+    <t>26KBF1KVM043</t>
+  </si>
+  <si>
+    <t>26KBF1KVM044</t>
+  </si>
+  <si>
+    <t>26KBF1KVM045</t>
+  </si>
+  <si>
+    <t>26KBF1KVM046</t>
+  </si>
+  <si>
+    <t>26KBF1KVM047</t>
+  </si>
+  <si>
+    <t>26KBF1KVM048</t>
+  </si>
+  <si>
+    <t>26KBF1KVM049</t>
+  </si>
+  <si>
+    <t>26KBF1KVM051</t>
+  </si>
+  <si>
+    <t>26KBF1KVM052</t>
+  </si>
+  <si>
+    <t>26KBF1KVM053</t>
+  </si>
+  <si>
+    <t>26KBF1KVM054</t>
+  </si>
+  <si>
+    <t>26KBF1KVM055</t>
+  </si>
+  <si>
+    <t>26KBF1KVM056</t>
+  </si>
+  <si>
+    <t>26KBF1KVM057</t>
+  </si>
+  <si>
+    <t>26KBF1KVM058</t>
+  </si>
+  <si>
+    <t>26KBF1KVM059</t>
+  </si>
+  <si>
+    <t>26KBF1KVM060</t>
+  </si>
+  <si>
+    <t>26KBF1KVM061</t>
+  </si>
+  <si>
+    <t>Bhagya Jawaranayaka</t>
+  </si>
+  <si>
+    <t>26KBF1KVM062</t>
+  </si>
+  <si>
+    <t>26KBF1KVM063</t>
+  </si>
+  <si>
+    <t>26KBF1KVM065</t>
+  </si>
+  <si>
+    <t>26KBF1KVM066</t>
+  </si>
+  <si>
+    <t>26KBF1KVM067</t>
+  </si>
+  <si>
+    <t>26KBF1KVM068</t>
+  </si>
+  <si>
+    <t>26KBF1KVM069</t>
+  </si>
+  <si>
+    <t>26KBF1KVM070</t>
+  </si>
+  <si>
+    <t>26KBF1KVM071</t>
+  </si>
+  <si>
+    <t>26KBF1KVM072</t>
+  </si>
+  <si>
+    <t>26KBF1KVM073</t>
+  </si>
+  <si>
+    <t>26KBF1KVM074</t>
+  </si>
+  <si>
+    <t>26KBF1KVM075</t>
+  </si>
+  <si>
+    <t>26KBF1KVM076</t>
+  </si>
+  <si>
+    <t>26KBF1KVM077</t>
+  </si>
+  <si>
+    <t>26KBF1KVM078</t>
+  </si>
+  <si>
+    <t>26KBF1KVM079</t>
+  </si>
+  <si>
+    <t>26KBF1KVM080</t>
+  </si>
+  <si>
+    <t>26KBF1KVM081</t>
+  </si>
+  <si>
+    <t>26KBF1KVM082</t>
+  </si>
+  <si>
+    <t>26KBF1KVM083</t>
+  </si>
+  <si>
+    <t>26KBF1KVM084</t>
+  </si>
+  <si>
+    <t>26KBF1KVM085</t>
+  </si>
+  <si>
+    <t>26KBF1KVM086</t>
+  </si>
+  <si>
+    <t>26KBF1KVM087</t>
+  </si>
+  <si>
+    <t>26KBF1KVM088</t>
+  </si>
+  <si>
+    <t>26KBF1KVM089</t>
+  </si>
+  <si>
+    <t>26KBF1KVM090</t>
+  </si>
+  <si>
+    <t>26KBF1KVM091</t>
+  </si>
+  <si>
+    <t>26KBF1KVM092</t>
+  </si>
+  <si>
+    <t>26KBF1KVM093</t>
+  </si>
+  <si>
+    <t>26KBF1KVM094</t>
+  </si>
+  <si>
+    <t>26KBF1KVM095</t>
+  </si>
+  <si>
+    <t>26KBF1KVM096</t>
+  </si>
+  <si>
+    <t>26KBF1KVM097</t>
+  </si>
+  <si>
+    <t>26KBF1KVM098</t>
+  </si>
+  <si>
+    <t>26KBF1KVM099</t>
+  </si>
+  <si>
+    <t>26KBF1KVM100</t>
+  </si>
+  <si>
+    <t>26KBF1KVM101</t>
+  </si>
+  <si>
+    <t>26KBF1KVM102</t>
+  </si>
+  <si>
+    <t>26KBF1KVM104</t>
+  </si>
+  <si>
+    <t>26KBF1KVM106</t>
+  </si>
+  <si>
+    <t>26KBF1KVM107</t>
+  </si>
+  <si>
+    <t>26KBF1KVM108</t>
+  </si>
+  <si>
+    <t>26KBF1KVM109</t>
+  </si>
+  <si>
+    <t>26KBF1KVM110</t>
+  </si>
+  <si>
+    <t>26KBF1KVM111</t>
+  </si>
+  <si>
+    <t>26KBF1KVM112</t>
+  </si>
+  <si>
+    <t>26KBF1KVM113</t>
+  </si>
+  <si>
+    <t>26KBF1KVM114</t>
+  </si>
+  <si>
+    <t>26KBF1KVM115</t>
+  </si>
+  <si>
+    <t>26KBF1KVM116</t>
+  </si>
+  <si>
+    <t>26KBF1KVM117</t>
+  </si>
+  <si>
+    <t>26KBF1KVM118</t>
+  </si>
+  <si>
+    <t>26KBF1KVM119</t>
+  </si>
+  <si>
+    <t>26KBF1KVM122</t>
+  </si>
+  <si>
+    <t>26KBF1KVM123</t>
+  </si>
+  <si>
+    <t>26KBF1KVM124</t>
+  </si>
+  <si>
+    <t>26KBF1KVM125</t>
+  </si>
+  <si>
+    <t>26KBF1DOM001</t>
+  </si>
+  <si>
+    <t>26KBF1DOM002</t>
+  </si>
+  <si>
+    <t>26KBF1DOM003</t>
+  </si>
+  <si>
+    <t>26KBF1DOM006</t>
+  </si>
+  <si>
+    <t>26KBF1DOM007</t>
+  </si>
+  <si>
+    <t>26KBF1DOM008</t>
+  </si>
+  <si>
+    <t>26KBF1DOM009</t>
+  </si>
+  <si>
+    <t>26KBF1DOM010</t>
+  </si>
+  <si>
+    <t>26KBF1DOM012</t>
+  </si>
+  <si>
+    <t>26KBF1DOM013</t>
+  </si>
+  <si>
+    <t>26KBF1DOM014</t>
+  </si>
+  <si>
+    <t>26KBF1DOM015</t>
+  </si>
+  <si>
+    <t>26KBF1DOM016</t>
+  </si>
+  <si>
+    <t>26KBF1DOM017</t>
+  </si>
+  <si>
+    <t>26KBF1DOM018</t>
+  </si>
+  <si>
+    <t>26KBF1DOM019</t>
+  </si>
+  <si>
+    <t>26KBF1DOM020</t>
+  </si>
+  <si>
+    <t>26KBF1DOM021</t>
+  </si>
+  <si>
+    <t>26KBF1DOM022</t>
+  </si>
+  <si>
+    <t>26KBF1DOM023</t>
+  </si>
+  <si>
+    <t>26KBF1DOM024</t>
+  </si>
+  <si>
+    <t>26KBF1KOM001</t>
+  </si>
+  <si>
+    <t>26KBF1KOM002</t>
+  </si>
+  <si>
+    <t>26KBF1KOM003</t>
+  </si>
+  <si>
+    <t>26KBF1KOM004</t>
+  </si>
+  <si>
+    <t>26KBF1SPM001</t>
+  </si>
+  <si>
+    <t>26KBF1SPM003</t>
+  </si>
+  <si>
+    <t>Lakshmi Mahadevamma 2</t>
+  </si>
+  <si>
+    <t>Lakshmi Mahadevamma 3</t>
+  </si>
+  <si>
+    <t>Meenakshi 1</t>
+  </si>
+  <si>
+    <t>Meenakshi 2</t>
+  </si>
+  <si>
+    <t>Meenakshi 3</t>
+  </si>
+  <si>
+    <t>Rukmini 1</t>
+  </si>
+  <si>
+    <t>Rukmini 2</t>
+  </si>
+  <si>
+    <t>Kullamma</t>
+  </si>
+  <si>
+    <t>Anandha 1</t>
+  </si>
+  <si>
+    <t>Basavaiah chandri</t>
+  </si>
+  <si>
+    <t>parvathi 2</t>
+  </si>
+  <si>
+    <t>Kamakshi</t>
+  </si>
+  <si>
+    <t>Maahi</t>
+  </si>
+  <si>
+    <t>Jayamma Dasappa 1</t>
+  </si>
+  <si>
+    <t>pavithra 1</t>
+  </si>
+  <si>
+    <t>pavithra 2</t>
+  </si>
+  <si>
+    <t>pavithra 3</t>
+  </si>
+  <si>
+    <t>pavithra 4</t>
+  </si>
+  <si>
+    <t>pavithra 5</t>
+  </si>
+  <si>
+    <t>lakshmi Yashu</t>
+  </si>
+  <si>
+    <t>Jayamma Govindhshetty</t>
+  </si>
+  <si>
+    <t>Ramya Mahadevswamy</t>
+  </si>
+  <si>
+    <t>Parvathamma [Aasha]]</t>
+  </si>
+  <si>
+    <t>Rajamma Ravichandhra</t>
+  </si>
+  <si>
+    <t>Lakshmi Revanna</t>
+  </si>
+  <si>
+    <t>Devamma</t>
+  </si>
+  <si>
+    <t>Mangalamma</t>
+  </si>
+  <si>
+    <t>Saakamma</t>
+  </si>
+  <si>
+    <t>Puttasiddhamma</t>
+  </si>
+  <si>
+    <t>Manjula</t>
+  </si>
+  <si>
+    <t>Geetha</t>
+  </si>
+  <si>
+    <t>Shivappa 1</t>
+  </si>
+  <si>
+    <t>Shivappa 2</t>
+  </si>
+  <si>
+    <t>vishalakshi</t>
+  </si>
+  <si>
+    <t>indhumathi tailor</t>
+  </si>
+  <si>
+    <t>Manjula 1 Hundi</t>
+  </si>
+  <si>
+    <t>Manjula 2 Hundi</t>
+  </si>
+  <si>
+    <t>Bhavitha 2 Hundi</t>
+  </si>
+  <si>
+    <t>Saavithri 1</t>
+  </si>
+  <si>
+    <t>Saavithri  2</t>
+  </si>
+  <si>
+    <t>Sannamma 1</t>
+  </si>
+  <si>
+    <t>Mahalakshmi</t>
+  </si>
+  <si>
+    <t>Maadhu</t>
+  </si>
+  <si>
+    <t>Sujatha</t>
+  </si>
+  <si>
+    <t>Shivamma 1 Hundi</t>
+  </si>
+  <si>
+    <t>Shivamma 2 Hundi</t>
+  </si>
+  <si>
+    <t>Devamma Hundi</t>
+  </si>
+  <si>
+    <t>Maalamma 1 Hundi</t>
+  </si>
+  <si>
+    <t>Maalamma 2 Hundi</t>
+  </si>
+  <si>
+    <t>savitha 1 hundi</t>
+  </si>
+  <si>
+    <t>chikkathayamma 1 Hundi</t>
+  </si>
+  <si>
+    <t>chikkathayamma 2 Hundi</t>
+  </si>
+  <si>
+    <t>Parvathi 1</t>
+  </si>
+  <si>
+    <t>Parvathi 3</t>
+  </si>
+  <si>
+    <t>Gaayathri</t>
+  </si>
+  <si>
+    <t>Sundhramma 2</t>
+  </si>
+  <si>
+    <t>Lakshmi Indhramma 1</t>
+  </si>
+  <si>
+    <t>Lakshmi Indhramma 2</t>
+  </si>
+  <si>
+    <t>Indhramma</t>
+  </si>
+  <si>
+    <t>Thejashwini</t>
+  </si>
+  <si>
+    <t>Mahadevi [Marashe] 1</t>
+  </si>
+  <si>
+    <t>Mahadevi [Marashe] 2</t>
+  </si>
+  <si>
+    <t>sannamma 2</t>
+  </si>
+  <si>
+    <t>shivu sowmya 1</t>
+  </si>
+  <si>
+    <t>shivu sowmya 2</t>
+  </si>
+  <si>
+    <t>shivu sowmya 3</t>
+  </si>
+  <si>
+    <t>shivu sowmya 4</t>
+  </si>
+  <si>
+    <t>shivu sowmya 5</t>
+  </si>
+  <si>
+    <t>saroja Sowmya</t>
+  </si>
+  <si>
+    <t>Aasha 1</t>
+  </si>
+  <si>
+    <t>Aasha 2</t>
+  </si>
+  <si>
+    <t>Aasha 3</t>
+  </si>
+  <si>
+    <t>Aasha 4</t>
+  </si>
+  <si>
+    <t>Aasha 6</t>
+  </si>
+  <si>
+    <t>Lakshmi Revanna 2</t>
+  </si>
+  <si>
+    <t>Uma Jayapura</t>
+  </si>
+  <si>
+    <t>Bhagy Sowmya 1</t>
+  </si>
+  <si>
+    <t>Bhagy Sowmya 2</t>
+  </si>
+  <si>
+    <t>Radha Lakshmi</t>
+  </si>
+  <si>
+    <t>Padhma Lakshmi</t>
+  </si>
+  <si>
+    <t>Shilpa</t>
+  </si>
+  <si>
+    <t>Rathnamma [Indhramma]</t>
+  </si>
+  <si>
+    <t>Rekha 1</t>
+  </si>
+  <si>
+    <t>Rekha 2</t>
+  </si>
+  <si>
+    <t>Rekha 3</t>
+  </si>
+  <si>
+    <t>Nagrathhnamma Anganwadi</t>
+  </si>
+  <si>
+    <t>Srinivas leelamma 6</t>
+  </si>
+  <si>
+    <t>Srinivas leelamma 7</t>
+  </si>
+  <si>
+    <t>Rathnamma [Anu]</t>
+  </si>
+  <si>
+    <t>Pavithra 6</t>
+  </si>
+  <si>
+    <t>Gowramma [Shivamma]</t>
+  </si>
+  <si>
+    <t>Lakshmamma</t>
+  </si>
+  <si>
+    <t>26KBF1DPA001</t>
+  </si>
+  <si>
+    <t>26KBF1DPA002</t>
+  </si>
+  <si>
+    <t>26KBF1DPA003</t>
+  </si>
+  <si>
+    <t>26KBF1DPA004</t>
+  </si>
+  <si>
+    <t>26KBF1DPA005</t>
+  </si>
+  <si>
+    <t>26KBF1DPA006</t>
+  </si>
+  <si>
+    <t>26KBF1DPA007</t>
+  </si>
+  <si>
+    <t>26KBF1DPA008</t>
+  </si>
+  <si>
+    <t>26KBF1DPA009</t>
+  </si>
+  <si>
+    <t>26KBF1DPA011</t>
+  </si>
+  <si>
+    <t>26KBF1DPA012</t>
+  </si>
+  <si>
+    <t>26KBF1DPA013</t>
+  </si>
+  <si>
+    <t>Bahavitha1</t>
+  </si>
+  <si>
+    <t>Kalavathi 2</t>
+  </si>
+  <si>
+    <t>Kalavathi 1</t>
+  </si>
+  <si>
+    <t>Poornima 1</t>
+  </si>
+  <si>
+    <t>poornima 2</t>
+  </si>
+  <si>
+    <t>Nandhini</t>
+  </si>
+  <si>
+    <t>Yashodha Latha 1</t>
+  </si>
+  <si>
+    <t>Yashodha Latha 2</t>
+  </si>
+  <si>
+    <t>Siddaraju</t>
+  </si>
+  <si>
+    <t>Lakshmi Sowmya 1</t>
+  </si>
+  <si>
+    <t>Pushpa Naagaraju</t>
+  </si>
+  <si>
+    <t>Beeresha</t>
+  </si>
+  <si>
+    <t>Raadha 1</t>
+  </si>
+  <si>
+    <t>Raaju</t>
+  </si>
+  <si>
+    <t>Mahadevamma Soppu</t>
+  </si>
+  <si>
+    <t>Parvathi</t>
+  </si>
+  <si>
+    <t>Suma Ravi Tailor</t>
+  </si>
+  <si>
+    <t>Soma Leelavathi 1</t>
+  </si>
+  <si>
+    <t>Hucchamma</t>
+  </si>
+  <si>
+    <t>Jayamma Daasappa</t>
+  </si>
+  <si>
+    <t>Kulamma 1</t>
+  </si>
+  <si>
+    <t>Kullamma 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundhramma </t>
+  </si>
+  <si>
+    <t>Radha 2</t>
+  </si>
+  <si>
+    <t>Latha</t>
+  </si>
+  <si>
+    <t>Sundhramma</t>
+  </si>
+  <si>
+    <t>Raajamma Ravichandhra</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Suma ravi tailor</t>
+  </si>
+  <si>
+    <t>Soma leelavathi</t>
+  </si>
+  <si>
+    <t>Raju</t>
   </si>
 </sst>
 </file>
@@ -488,16 +1238,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -523,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -532,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -540,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -549,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -557,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -566,15 +1316,15 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -583,15 +1333,15 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -600,15 +1350,15 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -617,15 +1367,15 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2000</v>
@@ -634,15 +1384,15 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>2000</v>
@@ -651,15 +1401,15 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -668,15 +1418,15 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -685,15 +1435,15 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>2000</v>
@@ -702,15 +1452,15 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>2000</v>
@@ -719,15 +1469,15 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>2000</v>
@@ -736,15 +1486,15 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>2000</v>
@@ -753,15 +1503,15 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>2000</v>
@@ -770,15 +1520,15 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -787,15 +1537,15 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>2000</v>
@@ -804,15 +1554,15 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>2000</v>
@@ -821,15 +1571,15 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C20">
         <v>2000</v>
@@ -838,15 +1588,15 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="C21">
         <v>2000</v>
@@ -855,24 +1605,2234 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="C22">
-        <v>4000</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26">
+        <v>2000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27">
+        <v>2000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28">
+        <v>2000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29">
+        <v>2000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30">
+        <v>2000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31">
+        <v>2000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32">
+        <v>2000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34">
+        <v>2000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35">
+        <v>2000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36">
+        <v>2000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37">
+        <v>2000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38">
+        <v>2000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39">
+        <v>2000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40">
+        <v>2000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41">
+        <v>2000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42">
+        <v>2000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43">
+        <v>2000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44">
+        <v>2000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45">
+        <v>2000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46">
+        <v>2000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47">
+        <v>2000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48">
+        <v>2000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49">
+        <v>2000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50">
+        <v>2000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51">
+        <v>2000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52">
+        <v>2000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53">
+        <v>2000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54">
+        <v>2000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55">
+        <v>2000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56">
+        <v>2000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57">
+        <v>2000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58">
+        <v>2000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59">
+        <v>2000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60">
+        <v>2000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61">
+        <v>2000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62">
+        <v>2000</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63">
+        <v>2000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64">
+        <v>2000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65">
+        <v>2000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66">
+        <v>2000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67">
+        <v>2000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68">
+        <v>2000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69">
+        <v>2000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70">
+        <v>2000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71">
+        <v>2000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72">
+        <v>2000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73">
+        <v>2000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74">
+        <v>2000</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75">
+        <v>2000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76">
+        <v>2000</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77">
+        <v>2000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78">
+        <v>2000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79">
+        <v>2000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80">
+        <v>2000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81">
+        <v>2000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82">
+        <v>2000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83">
+        <v>2000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84">
+        <v>2000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85">
+        <v>2000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86">
+        <v>2000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87">
+        <v>2000</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88">
+        <v>2000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89">
+        <v>2000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90">
+        <v>2000</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91">
+        <v>2000</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92">
+        <v>2000</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93">
+        <v>2000</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94">
+        <v>2000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95">
+        <v>2000</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96">
+        <v>2000</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97">
+        <v>2000</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98">
+        <v>2000</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99">
+        <v>2000</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100">
+        <v>2000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101">
+        <v>2000</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>244</v>
+      </c>
+      <c r="C102">
+        <v>2000</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103">
+        <v>2000</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104">
+        <v>2000</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105">
+        <v>2000</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106">
+        <v>2000</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107">
+        <v>2000</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108">
+        <v>2000</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109">
+        <v>2000</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110">
+        <v>2000</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" t="s">
+        <v>253</v>
+      </c>
+      <c r="C111">
+        <v>2000</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112">
+        <v>2000</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113">
+        <v>2000</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114">
+        <v>2000</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115">
+        <v>2000</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>258</v>
+      </c>
+      <c r="B116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116">
+        <v>2000</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117">
+        <v>2000</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118">
+        <v>2000</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119">
+        <v>2000</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" t="s">
+        <v>273</v>
+      </c>
+      <c r="C120">
+        <v>2000</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121">
+        <v>2000</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122">
+        <v>2000</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123">
+        <v>2000</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" t="s">
+        <v>277</v>
+      </c>
+      <c r="C124">
+        <v>2000</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125">
+        <v>3000</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126">
+        <v>1000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127">
+        <v>1000</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" t="s">
+        <v>281</v>
+      </c>
+      <c r="C128">
+        <v>1000</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129">
+        <v>1000</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" t="s">
+        <v>283</v>
+      </c>
+      <c r="C130">
+        <v>1000</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131">
+        <v>1000</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132">
+        <v>1000</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" t="s">
+        <v>252</v>
+      </c>
+      <c r="C133">
+        <v>1000</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" t="s">
+        <v>286</v>
+      </c>
+      <c r="C134">
+        <v>1000</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135">
+        <v>1000</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C136">
+        <v>1000</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137">
+        <v>1000</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
+        <v>289</v>
+      </c>
+      <c r="C138">
+        <v>1000</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139">
+        <v>1000</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140">
+        <v>1000</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141">
+        <v>1000</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142">
+        <v>1000</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144">
+        <v>1000</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145">
+        <v>1000</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146">
+        <v>1000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147">
+        <v>1000</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148">
+        <v>1000</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149">
+        <v>1000</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" t="s">
+        <v>279</v>
+      </c>
+      <c r="C150">
+        <v>1000</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151">
+        <v>3000</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152">
+        <v>3000</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
